--- a/Assets/06.Table/Title_MagicBook.xlsx
+++ b/Assets/06.Table/Title_MagicBook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53EADA29-C042-496C-8D7B-0761DC00232A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8F3F80-EC0B-4439-9575-EC7BED939079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Title_MagicBook" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -321,6 +321,15 @@
   </si>
   <si>
     <t>title57</t>
+  </si>
+  <si>
+    <t>title58</t>
+  </si>
+  <si>
+    <t>title59</t>
+  </si>
+  <si>
+    <t>title60</t>
   </si>
 </sst>
 </file>
@@ -1444,7 +1453,7 @@
             <v>75</v>
           </cell>
           <cell r="B77" t="str">
-            <v>magicBook80</v>
+            <v>magicBook75</v>
           </cell>
           <cell r="C77" t="str">
             <v>무명무사 노리개</v>
@@ -1455,7 +1464,7 @@
             <v>76</v>
           </cell>
           <cell r="B78" t="str">
-            <v>magicBook75</v>
+            <v>magicBook76</v>
           </cell>
           <cell r="C78" t="str">
             <v>암흑무사 노리개</v>
@@ -1466,7 +1475,7 @@
             <v>77</v>
           </cell>
           <cell r="B79" t="str">
-            <v>magicBook76</v>
+            <v>magicBook77</v>
           </cell>
           <cell r="C79" t="str">
             <v>칠흑무사 노리개</v>
@@ -1477,7 +1486,7 @@
             <v>78</v>
           </cell>
           <cell r="B80" t="str">
-            <v>magicBook77</v>
+            <v>magicBook78</v>
           </cell>
           <cell r="C80" t="str">
             <v>타락무사 노리개</v>
@@ -1488,7 +1497,7 @@
             <v>79</v>
           </cell>
           <cell r="B81" t="str">
-            <v>magicBook78</v>
+            <v>magicBook79</v>
           </cell>
           <cell r="C81" t="str">
             <v>혼돈무사 노리개</v>
@@ -1499,14 +1508,47 @@
             <v>80</v>
           </cell>
           <cell r="B82" t="str">
-            <v>magicBook79</v>
+            <v>magicBook80</v>
           </cell>
           <cell r="C82" t="str">
             <v>5월 패스 노리개</v>
           </cell>
         </row>
+        <row r="83">
+          <cell r="A83">
+            <v>81</v>
+          </cell>
+          <cell r="B83" t="str">
+            <v>magicBook81</v>
+          </cell>
+          <cell r="C83" t="str">
+            <v>무명왕 노리개</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="A84">
+            <v>82</v>
+          </cell>
+          <cell r="B84" t="str">
+            <v>magicBook82</v>
+          </cell>
+          <cell r="C84" t="str">
+            <v>암흑왕 노리개</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="A85">
+            <v>83</v>
+          </cell>
+          <cell r="B85" t="str">
+            <v>magicBook83</v>
+          </cell>
+          <cell r="C85" t="str">
+            <v>불사왕 노리개</v>
+          </cell>
+        </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1809,11 +1851,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:N59"/>
+  <dimension ref="A1:N62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K62" sqref="K62"/>
+      <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4543,6 +4585,144 @@
         <v>11</v>
       </c>
     </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C60" t="str">
+        <f>M60&amp;" 획득"</f>
+        <v>무명왕 노리개 획득</v>
+      </c>
+      <c r="D60" s="1">
+        <v>81</v>
+      </c>
+      <c r="E60">
+        <v>3</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60">
+        <v>198000000000</v>
+      </c>
+      <c r="H60">
+        <v>4</v>
+      </c>
+      <c r="I60">
+        <v>675000000</v>
+      </c>
+      <c r="J60">
+        <v>10</v>
+      </c>
+      <c r="K60" s="1">
+        <v>0</v>
+      </c>
+      <c r="L60" t="b">
+        <v>1</v>
+      </c>
+      <c r="M60" t="str">
+        <f>VLOOKUP(D60,[1]MagicBook!$A:$C,3,FALSE)</f>
+        <v>무명왕 노리개</v>
+      </c>
+      <c r="N60">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C61" t="str">
+        <f t="shared" ref="C61:C62" si="4">M61&amp;" 획득"</f>
+        <v>암흑왕 노리개 획득</v>
+      </c>
+      <c r="D61" s="1">
+        <v>82</v>
+      </c>
+      <c r="E61">
+        <v>3</v>
+      </c>
+      <c r="F61">
+        <v>2</v>
+      </c>
+      <c r="G61">
+        <v>200000000000</v>
+      </c>
+      <c r="H61">
+        <v>4</v>
+      </c>
+      <c r="I61">
+        <v>690000000</v>
+      </c>
+      <c r="J61">
+        <v>10</v>
+      </c>
+      <c r="K61" s="1">
+        <v>0</v>
+      </c>
+      <c r="L61" t="b">
+        <v>1</v>
+      </c>
+      <c r="M61" t="str">
+        <f>VLOOKUP(D61,[1]MagicBook!$A:$C,3,FALSE)</f>
+        <v>암흑왕 노리개</v>
+      </c>
+      <c r="N61">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C62" t="str">
+        <f t="shared" si="4"/>
+        <v>불사왕 노리개 획득</v>
+      </c>
+      <c r="D62" s="1">
+        <v>83</v>
+      </c>
+      <c r="E62">
+        <v>3</v>
+      </c>
+      <c r="F62">
+        <v>2</v>
+      </c>
+      <c r="G62">
+        <v>202000000000</v>
+      </c>
+      <c r="H62">
+        <v>4</v>
+      </c>
+      <c r="I62">
+        <v>705000000</v>
+      </c>
+      <c r="J62">
+        <v>10</v>
+      </c>
+      <c r="K62" s="1">
+        <v>0</v>
+      </c>
+      <c r="L62" t="b">
+        <v>1</v>
+      </c>
+      <c r="M62" t="str">
+        <f>VLOOKUP(D62,[1]MagicBook!$A:$C,3,FALSE)</f>
+        <v>불사왕 노리개</v>
+      </c>
+      <c r="N62">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="H1:H34" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}"/>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4555,7 +4735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80FD3109-CB85-4A96-9DCA-2307A4781704}">
   <dimension ref="A1:O489"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9:F65"/>
     </sheetView>
   </sheetViews>

--- a/Assets/06.Table/Title_MagicBook.xlsx
+++ b/Assets/06.Table/Title_MagicBook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8F3F80-EC0B-4439-9575-EC7BED939079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C26320-B21B-45C1-BE47-2746510FED71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Title_MagicBook" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -330,6 +330,15 @@
   </si>
   <si>
     <t>title60</t>
+  </si>
+  <si>
+    <t>title61</t>
+  </si>
+  <si>
+    <t>title62</t>
+  </si>
+  <si>
+    <t>title63</t>
   </si>
 </sst>
 </file>
@@ -1545,6 +1554,39 @@
           </cell>
           <cell r="C85" t="str">
             <v>불사왕 노리개</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="A86">
+            <v>84</v>
+          </cell>
+          <cell r="B86" t="str">
+            <v>magicBook84</v>
+          </cell>
+          <cell r="C86" t="str">
+            <v>방랑신선 노리개</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="A87">
+            <v>85</v>
+          </cell>
+          <cell r="B87" t="str">
+            <v>magicBook85</v>
+          </cell>
+          <cell r="C87" t="str">
+            <v>광명신선 노리개</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="A88">
+            <v>86</v>
+          </cell>
+          <cell r="B88" t="str">
+            <v>magicBook86</v>
+          </cell>
+          <cell r="C88" t="str">
+            <v>서월신선 노리개</v>
           </cell>
         </row>
       </sheetData>
@@ -1851,11 +1893,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:N62"/>
+  <dimension ref="A1:N65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
+      <selection pane="bottomLeft" activeCell="M63" sqref="M63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4720,6 +4762,144 @@
         <v>불사왕 노리개</v>
       </c>
       <c r="N62">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C63" t="str">
+        <f>M63&amp;" 획득"</f>
+        <v>방랑신선 노리개 획득</v>
+      </c>
+      <c r="D63" s="1">
+        <v>84</v>
+      </c>
+      <c r="E63">
+        <v>3</v>
+      </c>
+      <c r="F63">
+        <v>2</v>
+      </c>
+      <c r="G63">
+        <v>204000000000</v>
+      </c>
+      <c r="H63">
+        <v>4</v>
+      </c>
+      <c r="I63">
+        <v>720000000</v>
+      </c>
+      <c r="J63">
+        <v>10</v>
+      </c>
+      <c r="K63" s="1">
+        <v>0</v>
+      </c>
+      <c r="L63" t="b">
+        <v>1</v>
+      </c>
+      <c r="M63" t="str">
+        <f>VLOOKUP(D63,[1]MagicBook!$A:$C,3,FALSE)</f>
+        <v>방랑신선 노리개</v>
+      </c>
+      <c r="N63">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C64" t="str">
+        <f t="shared" ref="C64:C65" si="5">M64&amp;" 획득"</f>
+        <v>광명신선 노리개 획득</v>
+      </c>
+      <c r="D64" s="1">
+        <v>85</v>
+      </c>
+      <c r="E64">
+        <v>3</v>
+      </c>
+      <c r="F64">
+        <v>2</v>
+      </c>
+      <c r="G64">
+        <v>206000000000</v>
+      </c>
+      <c r="H64">
+        <v>4</v>
+      </c>
+      <c r="I64">
+        <v>735000000</v>
+      </c>
+      <c r="J64">
+        <v>10</v>
+      </c>
+      <c r="K64" s="1">
+        <v>0</v>
+      </c>
+      <c r="L64" t="b">
+        <v>1</v>
+      </c>
+      <c r="M64" t="str">
+        <f>VLOOKUP(D64,[1]MagicBook!$A:$C,3,FALSE)</f>
+        <v>광명신선 노리개</v>
+      </c>
+      <c r="N64">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C65" t="str">
+        <f t="shared" si="5"/>
+        <v>서월신선 노리개 획득</v>
+      </c>
+      <c r="D65" s="1">
+        <v>86</v>
+      </c>
+      <c r="E65">
+        <v>3</v>
+      </c>
+      <c r="F65">
+        <v>2</v>
+      </c>
+      <c r="G65">
+        <v>208000000000</v>
+      </c>
+      <c r="H65">
+        <v>4</v>
+      </c>
+      <c r="I65">
+        <v>750000000</v>
+      </c>
+      <c r="J65">
+        <v>10</v>
+      </c>
+      <c r="K65" s="1">
+        <v>0</v>
+      </c>
+      <c r="L65" t="b">
+        <v>1</v>
+      </c>
+      <c r="M65" t="str">
+        <f>VLOOKUP(D65,[1]MagicBook!$A:$C,3,FALSE)</f>
+        <v>서월신선 노리개</v>
+      </c>
+      <c r="N65">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/Title_MagicBook.xlsx
+++ b/Assets/06.Table/Title_MagicBook.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C26320-B21B-45C1-BE47-2746510FED71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0570442F-D726-4032-B893-9F751ED9554D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Title_MagicBook" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -339,6 +339,10 @@
   </si>
   <si>
     <t>title63</t>
+  </si>
+  <si>
+    <t>수미산 인드라 노리개 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1587,6 +1591,17 @@
           </cell>
           <cell r="C88" t="str">
             <v>서월신선 노리개</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="A89">
+            <v>87</v>
+          </cell>
+          <cell r="B89" t="str">
+            <v>magicBook87</v>
+          </cell>
+          <cell r="C89" t="str">
+            <v>6월 패스 노리개</v>
           </cell>
         </row>
       </sheetData>
@@ -1896,8 +1911,8 @@
   <dimension ref="A1:N65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M63" sqref="M63"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3806,9 +3821,8 @@
       <c r="B42" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C42" t="str">
-        <f t="shared" si="0"/>
-        <v>인드라 노리개 획득</v>
+      <c r="C42" t="s">
+        <v>90</v>
       </c>
       <c r="D42" s="1">
         <v>60</v>

--- a/Assets/06.Table/Title_MagicBook.xlsx
+++ b/Assets/06.Table/Title_MagicBook.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0570442F-D726-4032-B893-9F751ED9554D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BB76C2-F425-4F7B-A49B-19DE6E4E598B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -343,6 +343,15 @@
   <si>
     <t>수미산 인드라 노리개 획득</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title64</t>
+  </si>
+  <si>
+    <t>title65</t>
+  </si>
+  <si>
+    <t>title66</t>
   </si>
 </sst>
 </file>
@@ -1604,8 +1613,41 @@
             <v>6월 패스 노리개</v>
           </cell>
         </row>
+        <row r="90">
+          <cell r="A90">
+            <v>88</v>
+          </cell>
+          <cell r="B90" t="str">
+            <v>magicBook88</v>
+          </cell>
+          <cell r="C90" t="str">
+            <v>화영신선 노리개</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="A91">
+            <v>89</v>
+          </cell>
+          <cell r="B91" t="str">
+            <v>magicBook89</v>
+          </cell>
+          <cell r="C91" t="str">
+            <v>천명신선 노리개</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="A92">
+            <v>90</v>
+          </cell>
+          <cell r="B92" t="str">
+            <v>magicBook90</v>
+          </cell>
+          <cell r="C92" t="str">
+            <v>암영천선 노리개</v>
+          </cell>
+        </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1908,11 +1950,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:N65"/>
+  <dimension ref="A1:N68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4914,6 +4956,144 @@
         <v>서월신선 노리개</v>
       </c>
       <c r="N65">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66" t="str">
+        <f>M66&amp;" 획득"</f>
+        <v>화영신선 노리개 획득</v>
+      </c>
+      <c r="D66" s="1">
+        <v>88</v>
+      </c>
+      <c r="E66">
+        <v>3</v>
+      </c>
+      <c r="F66">
+        <v>2</v>
+      </c>
+      <c r="G66">
+        <v>210000000000</v>
+      </c>
+      <c r="H66">
+        <v>4</v>
+      </c>
+      <c r="I66">
+        <v>765000000</v>
+      </c>
+      <c r="J66">
+        <v>10</v>
+      </c>
+      <c r="K66" s="1">
+        <v>0</v>
+      </c>
+      <c r="L66" t="b">
+        <v>1</v>
+      </c>
+      <c r="M66" t="str">
+        <f>VLOOKUP(D66,[1]MagicBook!$A:$C,3,FALSE)</f>
+        <v>화영신선 노리개</v>
+      </c>
+      <c r="N66">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67" t="str">
+        <f>M67&amp;" 획득"</f>
+        <v>천명신선 노리개 획득</v>
+      </c>
+      <c r="D67" s="1">
+        <v>89</v>
+      </c>
+      <c r="E67">
+        <v>3</v>
+      </c>
+      <c r="F67">
+        <v>2</v>
+      </c>
+      <c r="G67">
+        <v>212000000000</v>
+      </c>
+      <c r="H67">
+        <v>4</v>
+      </c>
+      <c r="I67">
+        <v>780000000</v>
+      </c>
+      <c r="J67">
+        <v>10</v>
+      </c>
+      <c r="K67" s="1">
+        <v>0</v>
+      </c>
+      <c r="L67" t="b">
+        <v>1</v>
+      </c>
+      <c r="M67" t="str">
+        <f>VLOOKUP(D67,[1]MagicBook!$A:$C,3,FALSE)</f>
+        <v>천명신선 노리개</v>
+      </c>
+      <c r="N67">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68" t="str">
+        <f t="shared" ref="C68" si="6">M68&amp;" 획득"</f>
+        <v>암영천선 노리개 획득</v>
+      </c>
+      <c r="D68" s="1">
+        <v>90</v>
+      </c>
+      <c r="E68">
+        <v>3</v>
+      </c>
+      <c r="F68">
+        <v>2</v>
+      </c>
+      <c r="G68">
+        <v>214000000000</v>
+      </c>
+      <c r="H68">
+        <v>4</v>
+      </c>
+      <c r="I68">
+        <v>795000000</v>
+      </c>
+      <c r="J68">
+        <v>10</v>
+      </c>
+      <c r="K68" s="1">
+        <v>0</v>
+      </c>
+      <c r="L68" t="b">
+        <v>1</v>
+      </c>
+      <c r="M68" t="str">
+        <f>VLOOKUP(D68,[1]MagicBook!$A:$C,3,FALSE)</f>
+        <v>암영천선 노리개</v>
+      </c>
+      <c r="N68">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/Title_MagicBook.xlsx
+++ b/Assets/06.Table/Title_MagicBook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BB76C2-F425-4F7B-A49B-19DE6E4E598B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E1CA0F-0217-498F-BC45-679BDF1F7D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Title_MagicBook" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -352,6 +352,15 @@
   </si>
   <si>
     <t>title66</t>
+  </si>
+  <si>
+    <t>title67</t>
+  </si>
+  <si>
+    <t>title68</t>
+  </si>
+  <si>
+    <t>title69</t>
   </si>
 </sst>
 </file>
@@ -1646,8 +1655,41 @@
             <v>암영천선 노리개</v>
           </cell>
         </row>
+        <row r="93">
+          <cell r="A93">
+            <v>91</v>
+          </cell>
+          <cell r="B93" t="str">
+            <v>magicBook91</v>
+          </cell>
+          <cell r="C93" t="str">
+            <v>혈향천선 노리개</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="A94">
+            <v>92</v>
+          </cell>
+          <cell r="B94" t="str">
+            <v>magicBook92</v>
+          </cell>
+          <cell r="C94" t="str">
+            <v>홍랑천선 노리개</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="A95">
+            <v>93</v>
+          </cell>
+          <cell r="B95" t="str">
+            <v>magicBook93</v>
+          </cell>
+          <cell r="C95" t="str">
+            <v>설화천선 노리개</v>
+          </cell>
+        </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1950,11 +1992,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:N68"/>
+  <dimension ref="A1:N71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A66" sqref="A66"/>
+      <selection pane="bottomLeft" activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5094,6 +5136,144 @@
         <v>암영천선 노리개</v>
       </c>
       <c r="N68">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69" t="str">
+        <f>M69&amp;" 획득"</f>
+        <v>혈향천선 노리개 획득</v>
+      </c>
+      <c r="D69" s="1">
+        <v>91</v>
+      </c>
+      <c r="E69">
+        <v>3</v>
+      </c>
+      <c r="F69">
+        <v>2</v>
+      </c>
+      <c r="G69">
+        <v>216000000000</v>
+      </c>
+      <c r="H69">
+        <v>4</v>
+      </c>
+      <c r="I69">
+        <v>810000000</v>
+      </c>
+      <c r="J69">
+        <v>10</v>
+      </c>
+      <c r="K69" s="1">
+        <v>0</v>
+      </c>
+      <c r="L69" t="b">
+        <v>1</v>
+      </c>
+      <c r="M69" t="str">
+        <f>VLOOKUP(D69,[1]MagicBook!$A:$C,3,FALSE)</f>
+        <v>혈향천선 노리개</v>
+      </c>
+      <c r="N69">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70" t="str">
+        <f>M70&amp;" 획득"</f>
+        <v>홍랑천선 노리개 획득</v>
+      </c>
+      <c r="D70" s="1">
+        <v>92</v>
+      </c>
+      <c r="E70">
+        <v>3</v>
+      </c>
+      <c r="F70">
+        <v>2</v>
+      </c>
+      <c r="G70">
+        <v>218000000000</v>
+      </c>
+      <c r="H70">
+        <v>4</v>
+      </c>
+      <c r="I70">
+        <v>825000000</v>
+      </c>
+      <c r="J70">
+        <v>10</v>
+      </c>
+      <c r="K70" s="1">
+        <v>0</v>
+      </c>
+      <c r="L70" t="b">
+        <v>1</v>
+      </c>
+      <c r="M70" t="str">
+        <f>VLOOKUP(D70,[1]MagicBook!$A:$C,3,FALSE)</f>
+        <v>홍랑천선 노리개</v>
+      </c>
+      <c r="N70">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71" t="str">
+        <f t="shared" ref="C71" si="7">M71&amp;" 획득"</f>
+        <v>설화천선 노리개 획득</v>
+      </c>
+      <c r="D71" s="1">
+        <v>93</v>
+      </c>
+      <c r="E71">
+        <v>3</v>
+      </c>
+      <c r="F71">
+        <v>2</v>
+      </c>
+      <c r="G71">
+        <v>220000000000</v>
+      </c>
+      <c r="H71">
+        <v>4</v>
+      </c>
+      <c r="I71">
+        <v>840000000</v>
+      </c>
+      <c r="J71">
+        <v>10</v>
+      </c>
+      <c r="K71" s="1">
+        <v>0</v>
+      </c>
+      <c r="L71" t="b">
+        <v>1</v>
+      </c>
+      <c r="M71" t="str">
+        <f>VLOOKUP(D71,[1]MagicBook!$A:$C,3,FALSE)</f>
+        <v>설화천선 노리개</v>
+      </c>
+      <c r="N71">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/Title_MagicBook.xlsx
+++ b/Assets/06.Table/Title_MagicBook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E1CA0F-0217-498F-BC45-679BDF1F7D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25084B71-EF2D-47A2-BF3B-ACA612933355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -361,6 +361,12 @@
   </si>
   <si>
     <t>title69</t>
+  </si>
+  <si>
+    <t>title70</t>
+  </si>
+  <si>
+    <t>title71</t>
   </si>
 </sst>
 </file>
@@ -1688,8 +1694,41 @@
             <v>설화천선 노리개</v>
           </cell>
         </row>
+        <row r="96">
+          <cell r="A96">
+            <v>94</v>
+          </cell>
+          <cell r="B96" t="str">
+            <v>magicBook94</v>
+          </cell>
+          <cell r="C96" t="str">
+            <v>7월 패스 노리개</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="A97">
+            <v>95</v>
+          </cell>
+          <cell r="B97" t="str">
+            <v>magicBook95</v>
+          </cell>
+          <cell r="C97" t="str">
+            <v>음혼마군 노리개</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="A98">
+            <v>96</v>
+          </cell>
+          <cell r="B98" t="str">
+            <v>magicBook96</v>
+          </cell>
+          <cell r="C98" t="str">
+            <v>귀왕 노리개</v>
+          </cell>
+        </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1992,11 +2031,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:N71"/>
+  <dimension ref="A1:N73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C69" sqref="C69"/>
+      <selection pane="bottomLeft" activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5274,6 +5313,98 @@
         <v>설화천선 노리개</v>
       </c>
       <c r="N71">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72" t="str">
+        <f>M72&amp;" 획득"</f>
+        <v>음혼마군 노리개 획득</v>
+      </c>
+      <c r="D72" s="1">
+        <v>95</v>
+      </c>
+      <c r="E72">
+        <v>3</v>
+      </c>
+      <c r="F72">
+        <v>2</v>
+      </c>
+      <c r="G72">
+        <v>222000000000</v>
+      </c>
+      <c r="H72">
+        <v>4</v>
+      </c>
+      <c r="I72">
+        <v>855000000</v>
+      </c>
+      <c r="J72">
+        <v>10</v>
+      </c>
+      <c r="K72" s="1">
+        <v>0</v>
+      </c>
+      <c r="L72" t="b">
+        <v>1</v>
+      </c>
+      <c r="M72" t="str">
+        <f>VLOOKUP(D72,[1]MagicBook!$A:$C,3,FALSE)</f>
+        <v>음혼마군 노리개</v>
+      </c>
+      <c r="N72">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73" t="str">
+        <f t="shared" ref="C73" si="8">M73&amp;" 획득"</f>
+        <v>귀왕 노리개 획득</v>
+      </c>
+      <c r="D73" s="1">
+        <v>96</v>
+      </c>
+      <c r="E73">
+        <v>3</v>
+      </c>
+      <c r="F73">
+        <v>2</v>
+      </c>
+      <c r="G73">
+        <v>224000000000</v>
+      </c>
+      <c r="H73">
+        <v>4</v>
+      </c>
+      <c r="I73">
+        <v>870000000</v>
+      </c>
+      <c r="J73">
+        <v>10</v>
+      </c>
+      <c r="K73" s="1">
+        <v>0</v>
+      </c>
+      <c r="L73" t="b">
+        <v>1</v>
+      </c>
+      <c r="M73" t="str">
+        <f>VLOOKUP(D73,[1]MagicBook!$A:$C,3,FALSE)</f>
+        <v>귀왕 노리개</v>
+      </c>
+      <c r="N73">
         <v>11</v>
       </c>
     </row>
